--- a/biology/Zoologie/Amphiuma/Amphiuma.xlsx
+++ b/biology/Zoologie/Amphiuma/Amphiuma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphiuma est un genre d'urodèles, le seul de la famille des Amphiumidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphiuma est un genre d'urodèles, le seul de la famille des Amphiumidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les trois espèces de ce genre sont endémiques du Sud-Est des États-Unis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les trois espèces de ce genre sont endémiques du Sud-Est des États-Unis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (20 février 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (20 février 2014) :
 Amphiuma means Garden, 1821
 Amphiuma pholeter Neill, 1964
 Amphiuma tridactylum Cuvier, 1827</t>
@@ -575,7 +591,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Smith, 1821 : A Selection of the Correspondence of Linnaeus and Other Naturalists from the Original Manuscripts. vol. 1, London: Longman, Hurst, Rees, Orme and Brown (texte intégral)
 Gray, 1825 : A synopsis of the genera of reptiles and Amphibia, with a description of some new species. Annals of Philosophy, sér. 2, vol. 10, p. 193-217 (texte intégral).</t>
